--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -28,9 +28,6 @@
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
   <si>
-    <t>Folha Comentários : 13-01-2020 13:53:07</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -1665,6 +1662,9 @@
   </si>
   <si>
     <t>V0110</t>
+  </si>
+  <si>
+    <t>Folha Comentários : 14-01-2020 11:13:47</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1756,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -1765,6 +1765,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1780,7 +1786,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:C275" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:C275" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A3:C275"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Data" dataDxfId="2"/>
@@ -2076,20 +2082,20 @@
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>546</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2097,10 +2103,10 @@
         <v>42331</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2108,10 +2114,10 @@
         <v>42331</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2119,10 +2125,10 @@
         <v>42307</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2130,10 +2136,10 @@
         <v>42331</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2141,10 +2147,10 @@
         <v>40900</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2152,10 +2158,10 @@
         <v>40900</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2163,10 +2169,10 @@
         <v>40900</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2174,10 +2180,10 @@
         <v>40941</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,10 +2191,10 @@
         <v>40968</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,10 +2202,10 @@
         <v>41031</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2207,10 +2213,10 @@
         <v>41031</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2218,10 +2224,10 @@
         <v>41031</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2229,10 +2235,10 @@
         <v>41031</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2240,10 +2246,10 @@
         <v>41031</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2251,10 +2257,10 @@
         <v>41053</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2262,10 +2268,10 @@
         <v>41053</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2273,10 +2279,10 @@
         <v>41155</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2284,10 +2290,10 @@
         <v>41243</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2295,10 +2301,10 @@
         <v>41243</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2306,10 +2312,10 @@
         <v>41323</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2317,10 +2323,10 @@
         <v>41325</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2328,10 +2334,10 @@
         <v>41325</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2339,10 +2345,10 @@
         <v>41325</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2350,10 +2356,10 @@
         <v>41325</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2361,10 +2367,10 @@
         <v>41325</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2372,10 +2378,10 @@
         <v>41443</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2383,10 +2389,10 @@
         <v>41473</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2394,10 +2400,10 @@
         <v>41473</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2405,10 +2411,10 @@
         <v>41473</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2416,10 +2422,10 @@
         <v>41473</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2427,10 +2433,10 @@
         <v>41473</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2438,10 +2444,10 @@
         <v>41473</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2449,10 +2455,10 @@
         <v>41473</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2460,10 +2466,10 @@
         <v>41473</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2471,10 +2477,10 @@
         <v>41477</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2482,10 +2488,10 @@
         <v>41543</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2493,10 +2499,10 @@
         <v>41610</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2504,10 +2510,10 @@
         <v>41610</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2515,10 +2521,10 @@
         <v>41610</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2526,10 +2532,10 @@
         <v>41610</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2537,10 +2543,10 @@
         <v>41621</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2548,10 +2554,10 @@
         <v>41621</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2559,10 +2565,10 @@
         <v>41621</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2570,10 +2576,10 @@
         <v>41687</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2581,10 +2587,10 @@
         <v>41687</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2592,10 +2598,10 @@
         <v>41701</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2603,10 +2609,10 @@
         <v>41701</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2614,10 +2620,10 @@
         <v>41701</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2625,10 +2631,10 @@
         <v>41711</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2636,10 +2642,10 @@
         <v>41711</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2647,10 +2653,10 @@
         <v>41711</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2658,10 +2664,10 @@
         <v>41745</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2669,10 +2675,10 @@
         <v>41761</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2680,10 +2686,10 @@
         <v>41761</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2691,10 +2697,10 @@
         <v>41761</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2702,10 +2708,10 @@
         <v>41761</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2713,10 +2719,10 @@
         <v>41761</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2724,10 +2730,10 @@
         <v>41761</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2735,10 +2741,10 @@
         <v>41761</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2746,10 +2752,10 @@
         <v>41765</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2757,10 +2763,10 @@
         <v>41765</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2768,10 +2774,10 @@
         <v>41815</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2779,10 +2785,10 @@
         <v>41844</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2790,10 +2796,10 @@
         <v>41842</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2801,10 +2807,10 @@
         <v>41842</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2812,10 +2818,10 @@
         <v>41842</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2823,10 +2829,10 @@
         <v>41842</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2834,10 +2840,10 @@
         <v>41842</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2845,10 +2851,10 @@
         <v>41842</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2856,10 +2862,10 @@
         <v>41842</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2867,10 +2873,10 @@
         <v>41842</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2878,10 +2884,10 @@
         <v>41842</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2889,10 +2895,10 @@
         <v>41842</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2900,10 +2906,10 @@
         <v>41842</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2911,10 +2917,10 @@
         <v>41842</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2922,10 +2928,10 @@
         <v>41842</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2933,10 +2939,10 @@
         <v>41842</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2944,10 +2950,10 @@
         <v>41842</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2955,10 +2961,10 @@
         <v>41842</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2966,10 +2972,10 @@
         <v>41883</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2977,10 +2983,10 @@
         <v>41883</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2988,10 +2994,10 @@
         <v>41883</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2999,10 +3005,10 @@
         <v>42040</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3010,10 +3016,10 @@
         <v>42040</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3021,10 +3027,10 @@
         <v>42040</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3032,10 +3038,10 @@
         <v>42074</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3043,10 +3049,10 @@
         <v>42115</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3054,10 +3060,10 @@
         <v>42115</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3065,10 +3071,10 @@
         <v>42263</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3076,10 +3082,10 @@
         <v>42263</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3087,10 +3093,10 @@
         <v>42263</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3098,10 +3104,10 @@
         <v>42332</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3109,10 +3115,10 @@
         <v>42263</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3120,10 +3126,10 @@
         <v>42263</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3131,10 +3137,10 @@
         <v>42263</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3142,10 +3148,10 @@
         <v>42307</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3153,10 +3159,10 @@
         <v>42396</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3164,10 +3170,10 @@
         <v>42396</v>
       </c>
       <c r="B101" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3175,10 +3181,10 @@
         <v>42396</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3186,10 +3192,10 @@
         <v>42418</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3197,10 +3203,10 @@
         <v>42508</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3208,10 +3214,10 @@
         <v>42508</v>
       </c>
       <c r="B105" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3219,10 +3225,10 @@
         <v>42515</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3230,10 +3236,10 @@
         <v>42530</v>
       </c>
       <c r="B107" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3241,10 +3247,10 @@
         <v>42572</v>
       </c>
       <c r="B108" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3252,10 +3258,10 @@
         <v>42618</v>
       </c>
       <c r="B109" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3263,10 +3269,10 @@
         <v>42618</v>
       </c>
       <c r="B110" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3274,10 +3280,10 @@
         <v>42618</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3285,10 +3291,10 @@
         <v>42618</v>
       </c>
       <c r="B112" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3296,10 +3302,10 @@
         <v>42618</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3307,10 +3313,10 @@
         <v>42618</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3318,10 +3324,10 @@
         <v>42618</v>
       </c>
       <c r="B115" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3329,10 +3335,10 @@
         <v>42618</v>
       </c>
       <c r="B116" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3340,10 +3346,10 @@
         <v>42629</v>
       </c>
       <c r="B117" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3351,10 +3357,10 @@
         <v>42635</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3362,10 +3368,10 @@
         <v>42654</v>
       </c>
       <c r="B119" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3373,10 +3379,10 @@
         <v>42654</v>
       </c>
       <c r="B120" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3384,10 +3390,10 @@
         <v>42654</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3395,10 +3401,10 @@
         <v>42691</v>
       </c>
       <c r="B122" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3406,10 +3412,10 @@
         <v>42691</v>
       </c>
       <c r="B123" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3417,10 +3423,10 @@
         <v>42720</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3428,10 +3434,10 @@
         <v>42752</v>
       </c>
       <c r="B125" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3439,10 +3445,10 @@
         <v>42752</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3450,10 +3456,10 @@
         <v>42752</v>
       </c>
       <c r="B127" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3461,10 +3467,10 @@
         <v>42752</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,10 +3478,10 @@
         <v>42752</v>
       </c>
       <c r="B129" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,10 +3489,10 @@
         <v>42752</v>
       </c>
       <c r="B130" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,10 +3500,10 @@
         <v>42752</v>
       </c>
       <c r="B131" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,10 +3511,10 @@
         <v>42759</v>
       </c>
       <c r="B132" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,10 +3522,10 @@
         <v>42809</v>
       </c>
       <c r="B133" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,10 +3533,10 @@
         <v>42809</v>
       </c>
       <c r="B134" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,10 +3544,10 @@
         <v>42809</v>
       </c>
       <c r="B135" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,10 +3555,10 @@
         <v>42811</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,10 +3566,10 @@
         <v>42811</v>
       </c>
       <c r="B137" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3571,10 +3577,10 @@
         <v>42811</v>
       </c>
       <c r="B138" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,10 +3588,10 @@
         <v>42811</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,10 +3599,10 @@
         <v>42811</v>
       </c>
       <c r="B140" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,10 +3610,10 @@
         <v>42811</v>
       </c>
       <c r="B141" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -3615,10 +3621,10 @@
         <v>42817</v>
       </c>
       <c r="B142" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3626,10 +3632,10 @@
         <v>42824</v>
       </c>
       <c r="B143" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -3637,10 +3643,10 @@
         <v>42824</v>
       </c>
       <c r="B144" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -3648,10 +3654,10 @@
         <v>42824</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -3659,10 +3665,10 @@
         <v>42824</v>
       </c>
       <c r="B146" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -3670,10 +3676,10 @@
         <v>42824</v>
       </c>
       <c r="B147" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -3681,10 +3687,10 @@
         <v>42824</v>
       </c>
       <c r="B148" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -3692,10 +3698,10 @@
         <v>42824</v>
       </c>
       <c r="B149" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,10 +3709,10 @@
         <v>42824</v>
       </c>
       <c r="B150" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -3714,10 +3720,10 @@
         <v>42824</v>
       </c>
       <c r="B151" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3725,10 +3731,10 @@
         <v>42824</v>
       </c>
       <c r="B152" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -3736,10 +3742,10 @@
         <v>42824</v>
       </c>
       <c r="B153" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -3747,10 +3753,10 @@
         <v>42824</v>
       </c>
       <c r="B154" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -3758,10 +3764,10 @@
         <v>42879</v>
       </c>
       <c r="B155" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3769,10 +3775,10 @@
         <v>42879</v>
       </c>
       <c r="B156" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3780,10 +3786,10 @@
         <v>42858</v>
       </c>
       <c r="B157" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3791,10 +3797,10 @@
         <v>42873</v>
       </c>
       <c r="B158" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3802,10 +3808,10 @@
         <v>42873</v>
       </c>
       <c r="B159" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3813,10 +3819,10 @@
         <v>42873</v>
       </c>
       <c r="B160" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3824,10 +3830,10 @@
         <v>42873</v>
       </c>
       <c r="B161" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3835,10 +3841,10 @@
         <v>42905</v>
       </c>
       <c r="B162" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3846,10 +3852,10 @@
         <v>42954</v>
       </c>
       <c r="B163" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C163" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3857,10 +3863,10 @@
         <v>42958</v>
       </c>
       <c r="B164" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3868,10 +3874,10 @@
         <v>42958</v>
       </c>
       <c r="B165" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3879,10 +3885,10 @@
         <v>42958</v>
       </c>
       <c r="B166" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3890,10 +3896,10 @@
         <v>42958</v>
       </c>
       <c r="B167" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3901,10 +3907,10 @@
         <v>42958</v>
       </c>
       <c r="B168" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3912,10 +3918,10 @@
         <v>42989</v>
       </c>
       <c r="B169" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3923,10 +3929,10 @@
         <v>42989</v>
       </c>
       <c r="B170" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3934,10 +3940,10 @@
         <v>42990</v>
       </c>
       <c r="B171" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C171" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3945,10 +3951,10 @@
         <v>42990</v>
       </c>
       <c r="B172" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3956,10 +3962,10 @@
         <v>42992</v>
       </c>
       <c r="B173" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3967,10 +3973,10 @@
         <v>43038</v>
       </c>
       <c r="B174" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3978,10 +3984,10 @@
         <v>43038</v>
       </c>
       <c r="B175" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3989,10 +3995,10 @@
         <v>43062</v>
       </c>
       <c r="B176" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4000,10 +4006,10 @@
         <v>43066</v>
       </c>
       <c r="B177" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -4011,10 +4017,10 @@
         <v>43066</v>
       </c>
       <c r="B178" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4022,10 +4028,10 @@
         <v>43067</v>
       </c>
       <c r="B179" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -4033,10 +4039,10 @@
         <v>43067</v>
       </c>
       <c r="B180" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4044,10 +4050,10 @@
         <v>43131</v>
       </c>
       <c r="B181" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C181" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4055,10 +4061,10 @@
         <v>43131</v>
       </c>
       <c r="B182" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4066,10 +4072,10 @@
         <v>43131</v>
       </c>
       <c r="B183" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -4077,10 +4083,10 @@
         <v>43173</v>
       </c>
       <c r="B184" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -4088,10 +4094,10 @@
         <v>43173</v>
       </c>
       <c r="B185" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -4099,10 +4105,10 @@
         <v>43173</v>
       </c>
       <c r="B186" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C186" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4110,10 +4116,10 @@
         <v>43178</v>
       </c>
       <c r="B187" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C187" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4121,10 +4127,10 @@
         <v>43186</v>
       </c>
       <c r="B188" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -4132,10 +4138,10 @@
         <v>43186</v>
       </c>
       <c r="B189" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C189" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4143,10 +4149,10 @@
         <v>43186</v>
       </c>
       <c r="B190" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4154,10 +4160,10 @@
         <v>43186</v>
       </c>
       <c r="B191" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4165,10 +4171,10 @@
         <v>43186</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -4176,10 +4182,10 @@
         <v>43186</v>
       </c>
       <c r="B193" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C193" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -4187,10 +4193,10 @@
         <v>43222</v>
       </c>
       <c r="B194" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -4198,10 +4204,10 @@
         <v>43222</v>
       </c>
       <c r="B195" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -4209,10 +4215,10 @@
         <v>43255</v>
       </c>
       <c r="B196" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -4220,10 +4226,10 @@
         <v>43262</v>
       </c>
       <c r="B197" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C197" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -4231,10 +4237,10 @@
         <v>43280</v>
       </c>
       <c r="B198" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C198" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -4242,10 +4248,10 @@
         <v>43209</v>
       </c>
       <c r="B199" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4253,10 +4259,10 @@
         <v>43209</v>
       </c>
       <c r="B200" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C200" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -4264,10 +4270,10 @@
         <v>41473</v>
       </c>
       <c r="B201" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C201" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -4275,10 +4281,10 @@
         <v>41473</v>
       </c>
       <c r="B202" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C202" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -4286,10 +4292,10 @@
         <v>41473</v>
       </c>
       <c r="B203" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C203" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4297,10 +4303,10 @@
         <v>41761</v>
       </c>
       <c r="B204" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -4308,10 +4314,10 @@
         <v>42115</v>
       </c>
       <c r="B205" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -4319,10 +4325,10 @@
         <v>42115</v>
       </c>
       <c r="B206" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -4330,10 +4336,10 @@
         <v>42115</v>
       </c>
       <c r="B207" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C207" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -4341,10 +4347,10 @@
         <v>42115</v>
       </c>
       <c r="B208" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C208" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -4352,10 +4358,10 @@
         <v>42115</v>
       </c>
       <c r="B209" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -4363,10 +4369,10 @@
         <v>43073</v>
       </c>
       <c r="B210" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C210" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -4374,10 +4380,10 @@
         <v>43073</v>
       </c>
       <c r="B211" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C211" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -4385,10 +4391,10 @@
         <v>40359</v>
       </c>
       <c r="B212" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -4396,10 +4402,10 @@
         <v>40359</v>
       </c>
       <c r="B213" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C213" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -4407,10 +4413,10 @@
         <v>40463</v>
       </c>
       <c r="B214" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -4418,10 +4424,10 @@
         <v>41351</v>
       </c>
       <c r="B215" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4429,10 +4435,10 @@
         <v>41876</v>
       </c>
       <c r="B216" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -4440,10 +4446,10 @@
         <v>41921</v>
       </c>
       <c r="B217" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C217" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4451,10 +4457,10 @@
         <v>41921</v>
       </c>
       <c r="B218" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4462,10 +4468,10 @@
         <v>41921</v>
       </c>
       <c r="B219" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C219" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -4473,10 +4479,10 @@
         <v>41921</v>
       </c>
       <c r="B220" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -4484,10 +4490,10 @@
         <v>42642</v>
       </c>
       <c r="B221" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C221" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -4495,10 +4501,10 @@
         <v>42642</v>
       </c>
       <c r="B222" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C222" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -4506,10 +4512,10 @@
         <v>42745</v>
       </c>
       <c r="B223" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C223" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -4517,10 +4523,10 @@
         <v>42745</v>
       </c>
       <c r="B224" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -4528,10 +4534,10 @@
         <v>43390</v>
       </c>
       <c r="B225" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C225" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -4539,10 +4545,10 @@
         <v>43136</v>
       </c>
       <c r="B226" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C226" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -4550,10 +4556,10 @@
         <v>43136</v>
       </c>
       <c r="B227" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C227" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4561,10 +4567,10 @@
         <v>43136</v>
       </c>
       <c r="B228" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C228" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -4572,10 +4578,10 @@
         <v>43136</v>
       </c>
       <c r="B229" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C229" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -4583,10 +4589,10 @@
         <v>43158</v>
       </c>
       <c r="B230" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C230" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -4594,10 +4600,10 @@
         <v>43158</v>
       </c>
       <c r="B231" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C231" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -4605,10 +4611,10 @@
         <v>43158</v>
       </c>
       <c r="B232" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C232" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -4616,10 +4622,10 @@
         <v>43158</v>
       </c>
       <c r="B233" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C233" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -4627,10 +4633,10 @@
         <v>43209</v>
       </c>
       <c r="B234" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C234" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -4638,10 +4644,10 @@
         <v>43209</v>
       </c>
       <c r="B235" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C235" s="6" t="s">
         <v>467</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -4649,10 +4655,10 @@
         <v>43256</v>
       </c>
       <c r="B236" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C236" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -4660,10 +4666,10 @@
         <v>43256</v>
       </c>
       <c r="B237" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C237" s="6" t="s">
         <v>471</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -4671,10 +4677,10 @@
         <v>43264</v>
       </c>
       <c r="B238" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C238" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -4682,10 +4688,10 @@
         <v>43264</v>
       </c>
       <c r="B239" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C239" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -4693,10 +4699,10 @@
         <v>43273</v>
       </c>
       <c r="B240" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C240" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -4704,10 +4710,10 @@
         <v>43697</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -4715,10 +4721,10 @@
         <v>43285</v>
       </c>
       <c r="B242" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C242" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -4726,10 +4732,10 @@
         <v>43285</v>
       </c>
       <c r="B243" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C243" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -4737,10 +4743,10 @@
         <v>43530</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -4748,10 +4754,10 @@
         <v>43286</v>
       </c>
       <c r="B245" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C245" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -4759,10 +4765,10 @@
         <v>43286</v>
       </c>
       <c r="B246" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C246" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -4770,10 +4776,10 @@
         <v>43286</v>
       </c>
       <c r="B247" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C247" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -4781,10 +4787,10 @@
         <v>43286</v>
       </c>
       <c r="B248" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -4792,10 +4798,10 @@
         <v>43286</v>
       </c>
       <c r="B249" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C249" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4803,10 +4809,10 @@
         <v>43286</v>
       </c>
       <c r="B250" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -4814,10 +4820,10 @@
         <v>43292</v>
       </c>
       <c r="B251" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C251" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -4825,10 +4831,10 @@
         <v>43292</v>
       </c>
       <c r="B252" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4836,10 +4842,10 @@
         <v>43292</v>
       </c>
       <c r="B253" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -4847,10 +4853,10 @@
         <v>43292</v>
       </c>
       <c r="B254" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -4858,10 +4864,10 @@
         <v>43299</v>
       </c>
       <c r="B255" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C255" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4869,10 +4875,10 @@
         <v>43300</v>
       </c>
       <c r="B256" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C256" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4880,10 +4886,10 @@
         <v>43398</v>
       </c>
       <c r="B257" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4891,10 +4897,10 @@
         <v>43454</v>
       </c>
       <c r="B258" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4902,10 +4908,10 @@
         <v>43454</v>
       </c>
       <c r="B259" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C259" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -4913,10 +4919,10 @@
         <v>43418</v>
       </c>
       <c r="B260" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C260" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -4924,10 +4930,10 @@
         <v>43445</v>
       </c>
       <c r="B261" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C261" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -4935,10 +4941,10 @@
         <v>43454</v>
       </c>
       <c r="B262" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C262" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4946,10 +4952,10 @@
         <v>43454</v>
       </c>
       <c r="B263" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C263" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4957,10 +4963,10 @@
         <v>43518</v>
       </c>
       <c r="B264" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C264" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4968,10 +4974,10 @@
         <v>43525</v>
       </c>
       <c r="B265" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C265" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4979,10 +4985,10 @@
         <v>43486</v>
       </c>
       <c r="B266" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C266" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4990,10 +4996,10 @@
         <v>43486</v>
       </c>
       <c r="B267" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C267" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -5001,10 +5007,10 @@
         <v>43486</v>
       </c>
       <c r="B268" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C268" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -5012,10 +5018,10 @@
         <v>43469</v>
       </c>
       <c r="B269" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C269" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -5023,10 +5029,10 @@
         <v>43528</v>
       </c>
       <c r="B270" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C270" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="C270" s="6" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -5034,10 +5040,10 @@
         <v>43539</v>
       </c>
       <c r="B271" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C271" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -5045,10 +5051,10 @@
         <v>43550</v>
       </c>
       <c r="B272" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C272" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -5056,10 +5062,10 @@
         <v>43579</v>
       </c>
       <c r="B273" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C273" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -5067,10 +5073,10 @@
         <v>43444</v>
       </c>
       <c r="B274" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C274" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -5078,10 +5084,10 @@
         <v>43488</v>
       </c>
       <c r="B275" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>V0110</t>
   </si>
   <si>
-    <t>Folha Comentários : 14-01-2020 11:13:47</t>
+    <t>Folha Comentários : 04-02-2020 15:43:37</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="555">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -764,9 +764,6 @@
     <t>C1621</t>
   </si>
   <si>
-    <t>CAIRO Camel</t>
-  </si>
-  <si>
     <t>C1701</t>
   </si>
   <si>
@@ -1664,7 +1661,34 @@
     <t>V0110</t>
   </si>
   <si>
-    <t>Folha Comentários : 04-02-2020 15:43:37</t>
+    <t>Folha Comentários : 11-02-2020 10:36:58</t>
+  </si>
+  <si>
+    <t>Cairo Camel</t>
+  </si>
+  <si>
+    <t>Queens Star Camel</t>
+  </si>
+  <si>
+    <t>Queens Star Turquoise</t>
+  </si>
+  <si>
+    <t>Queens Star Bordeaux</t>
+  </si>
+  <si>
+    <t>Queens Star Light Grey</t>
+  </si>
+  <si>
+    <t>Queens Star Ash</t>
+  </si>
+  <si>
+    <t>Queens Star Brown</t>
+  </si>
+  <si>
+    <t>Queens Star Black</t>
+  </si>
+  <si>
+    <t>Queens Star Amarelo</t>
   </si>
 </sst>
 </file>
@@ -1786,8 +1810,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:C275" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A3:C275"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:C283" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A3:C283"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Data" dataDxfId="2"/>
     <tableColumn id="2" name="Comentário" dataDxfId="1"/>
@@ -2060,7 +2084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C275"/>
+  <dimension ref="A1:C283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -2082,7 +2106,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3434,21 +3458,21 @@
         <v>42752</v>
       </c>
       <c r="B125" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>42752</v>
+        <v>43866</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>248</v>
+        <v>547</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3456,21 +3480,21 @@
         <v>42752</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>42752</v>
+        <v>43866</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>252</v>
+        <v>548</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3478,21 +3502,21 @@
         <v>42752</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>42752</v>
+        <v>43866</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>256</v>
+        <v>549</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3500,208 +3524,208 @@
         <v>42752</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>42759</v>
+        <v>43866</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>260</v>
+        <v>550</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>42809</v>
+        <v>42752</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>42809</v>
+        <v>43866</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>264</v>
+        <v>551</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>42809</v>
+        <v>42752</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>42811</v>
+        <v>43866</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>268</v>
+        <v>552</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>42811</v>
+        <v>42752</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>42811</v>
+        <v>43866</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>272</v>
+        <v>553</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>42811</v>
+        <v>42759</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>42811</v>
+        <v>42809</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>42811</v>
+        <v>42809</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>42817</v>
+        <v>42809</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>42824</v>
+        <v>42811</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>42824</v>
+        <v>42811</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>42824</v>
+        <v>42811</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>42824</v>
+        <v>42811</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>42824</v>
+        <v>42811</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>42824</v>
+        <v>42811</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>42824</v>
+        <v>42817</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3709,10 +3733,10 @@
         <v>42824</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -3720,10 +3744,10 @@
         <v>42824</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3731,10 +3755,10 @@
         <v>42824</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -3742,10 +3766,10 @@
         <v>42824</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -3753,1341 +3777,1429 @@
         <v>42824</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>42879</v>
+        <v>42824</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>42879</v>
+        <v>42824</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>42858</v>
+        <v>42824</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <v>42873</v>
+        <v>42824</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
-        <v>42873</v>
+        <v>42824</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
-        <v>42873</v>
+        <v>42824</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
-        <v>42873</v>
+        <v>42824</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <v>42905</v>
+        <v>42879</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
-        <v>42954</v>
+        <v>42879</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
-        <v>42958</v>
+        <v>42858</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
-        <v>42958</v>
+        <v>42873</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <v>42958</v>
+        <v>42873</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
-        <v>42958</v>
+        <v>42873</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>42958</v>
+        <v>42873</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <v>42989</v>
+        <v>42905</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
-        <v>42989</v>
+        <v>42954</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
-        <v>42990</v>
+        <v>42958</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>42990</v>
+        <v>42958</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>42992</v>
+        <v>42958</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <v>43038</v>
+        <v>42958</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>43038</v>
+        <v>42958</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <v>43062</v>
+        <v>42989</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>43066</v>
+        <v>42989</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>43066</v>
+        <v>42990</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>43067</v>
+        <v>43866</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>354</v>
+        <v>554</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>43067</v>
+        <v>42990</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <v>43131</v>
+        <v>42992</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>43131</v>
+        <v>43038</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>43131</v>
+        <v>43038</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>43173</v>
+        <v>43062</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>43173</v>
+        <v>43066</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>43173</v>
+        <v>43066</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>43178</v>
+        <v>43067</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>43186</v>
+        <v>43067</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>43186</v>
+        <v>43131</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>43186</v>
+        <v>43131</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>43186</v>
+        <v>43131</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>43186</v>
+        <v>43173</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>43186</v>
+        <v>43173</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>43222</v>
+        <v>43173</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>43222</v>
+        <v>43178</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>43255</v>
+        <v>43186</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>43262</v>
+        <v>43186</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>43280</v>
+        <v>43186</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>43209</v>
+        <v>43186</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>43209</v>
+        <v>43186</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>41473</v>
+        <v>43186</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>41473</v>
+        <v>43222</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>41473</v>
+        <v>43222</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>41761</v>
+        <v>43255</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>42115</v>
+        <v>43262</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>42115</v>
+        <v>43280</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>42115</v>
+        <v>43209</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>42115</v>
+        <v>43209</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>42115</v>
+        <v>41473</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>43073</v>
+        <v>41473</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>43073</v>
+        <v>41473</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>40359</v>
+        <v>41761</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>40359</v>
+        <v>42115</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>40463</v>
+        <v>42115</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>41351</v>
+        <v>42115</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>41876</v>
+        <v>42115</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>41921</v>
+        <v>42115</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
-        <v>41921</v>
+        <v>43073</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
-        <v>41921</v>
+        <v>43073</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
-        <v>41921</v>
+        <v>40359</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>42642</v>
+        <v>40359</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
-        <v>42642</v>
+        <v>40463</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>42745</v>
+        <v>41351</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
-        <v>42745</v>
+        <v>41876</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>43390</v>
+        <v>41921</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>43136</v>
+        <v>41921</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
-        <v>43136</v>
+        <v>41921</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
-        <v>43136</v>
+        <v>41921</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
-        <v>43136</v>
+        <v>42642</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
-        <v>43158</v>
+        <v>42642</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
-        <v>43158</v>
+        <v>42745</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
-        <v>43158</v>
+        <v>42745</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
-        <v>43158</v>
+        <v>43390</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
-        <v>43209</v>
+        <v>43136</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
-        <v>43209</v>
+        <v>43136</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
-        <v>43256</v>
+        <v>43136</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
-        <v>43256</v>
+        <v>43136</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
-        <v>43264</v>
+        <v>43158</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
-        <v>43264</v>
+        <v>43158</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
-        <v>43273</v>
+        <v>43158</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
-        <v>43697</v>
+        <v>43158</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
-        <v>43285</v>
+        <v>43209</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
-        <v>43285</v>
+        <v>43209</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
-        <v>43530</v>
+        <v>43256</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
-        <v>43286</v>
+        <v>43256</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
-        <v>43286</v>
+        <v>43264</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
-        <v>43286</v>
+        <v>43264</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
-        <v>43286</v>
+        <v>43273</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
-        <v>43286</v>
+        <v>43697</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
-        <v>43286</v>
+        <v>43285</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
-        <v>43292</v>
+        <v>43285</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
-        <v>43292</v>
+        <v>43530</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
-        <v>43292</v>
+        <v>43286</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
-        <v>43292</v>
+        <v>43286</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
-        <v>43299</v>
+        <v>43286</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
-        <v>43300</v>
+        <v>43286</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
-        <v>43398</v>
+        <v>43286</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
-        <v>43454</v>
+        <v>43286</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
-        <v>43454</v>
+        <v>43292</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
-        <v>43418</v>
+        <v>43292</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
-        <v>43445</v>
+        <v>43292</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
-        <v>43454</v>
+        <v>43292</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
-        <v>43454</v>
+        <v>43299</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
-        <v>43518</v>
+        <v>43300</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
-        <v>43525</v>
+        <v>43398</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
-        <v>43486</v>
+        <v>43454</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
-        <v>43486</v>
+        <v>43454</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
-        <v>43469</v>
+        <v>43445</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
-        <v>43528</v>
+        <v>43454</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
-        <v>43539</v>
+        <v>43454</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
-        <v>43550</v>
+        <v>43518</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
-        <v>43579</v>
+        <v>43525</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
+        <v>43486</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="5">
+        <v>43486</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="5">
+        <v>43469</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="5">
+        <v>43528</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="5">
+        <v>43539</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="5">
+        <v>43550</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="5">
+        <v>43579</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="5">
+        <v>43444</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="5">
         <v>43488</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B283" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C283" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="547">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -1661,34 +1661,10 @@
     <t>V0110</t>
   </si>
   <si>
-    <t>Folha Comentários : 11-02-2020 10:36:58</t>
-  </si>
-  <si>
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Queens Star Camel</t>
-  </si>
-  <si>
-    <t>Queens Star Turquoise</t>
-  </si>
-  <si>
-    <t>Queens Star Bordeaux</t>
-  </si>
-  <si>
-    <t>Queens Star Light Grey</t>
-  </si>
-  <si>
-    <t>Queens Star Ash</t>
-  </si>
-  <si>
-    <t>Queens Star Brown</t>
-  </si>
-  <si>
-    <t>Queens Star Black</t>
-  </si>
-  <si>
-    <t>Queens Star Amarelo</t>
+    <t>Folha Comentários : 21-02-2020 11:18:43</t>
   </si>
 </sst>
 </file>
@@ -1810,8 +1786,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:C283" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A3:C283"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:C275" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A3:C275"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Data" dataDxfId="2"/>
     <tableColumn id="2" name="Comentário" dataDxfId="1"/>
@@ -2084,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C283"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,7 +2082,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3458,7 +3434,7 @@
         <v>42752</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>246</v>
@@ -3466,13 +3442,13 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>43866</v>
+        <v>42752</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>547</v>
+        <v>247</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3480,21 +3456,21 @@
         <v>42752</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>43866</v>
+        <v>42752</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>548</v>
+        <v>251</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3502,21 +3478,21 @@
         <v>42752</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>43866</v>
+        <v>42752</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>549</v>
+        <v>255</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3524,208 +3500,208 @@
         <v>42752</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>43866</v>
+        <v>42759</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>550</v>
+        <v>259</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>42752</v>
+        <v>42809</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>43866</v>
+        <v>42809</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>551</v>
+        <v>263</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>42752</v>
+        <v>42809</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>43866</v>
+        <v>42811</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>552</v>
+        <v>267</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>42752</v>
+        <v>42811</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>43866</v>
+        <v>42811</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>553</v>
+        <v>271</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>42759</v>
+        <v>42811</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>42809</v>
+        <v>42811</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>42809</v>
+        <v>42811</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>42809</v>
+        <v>42817</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>42811</v>
+        <v>42824</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>42811</v>
+        <v>42824</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>42811</v>
+        <v>42824</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>42811</v>
+        <v>42824</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>42811</v>
+        <v>42824</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>42811</v>
+        <v>42824</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>42817</v>
+        <v>42824</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3733,10 +3709,10 @@
         <v>42824</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -3744,10 +3720,10 @@
         <v>42824</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3755,10 +3731,10 @@
         <v>42824</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -3766,10 +3742,10 @@
         <v>42824</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -3777,1428 +3753,1340 @@
         <v>42824</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>42824</v>
+        <v>42879</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>42824</v>
+        <v>42879</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>42824</v>
+        <v>42858</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <v>42824</v>
+        <v>42873</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
-        <v>42824</v>
+        <v>42873</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
-        <v>42824</v>
+        <v>42873</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
-        <v>42824</v>
+        <v>42873</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <v>42879</v>
+        <v>42905</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
-        <v>42879</v>
+        <v>42954</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
-        <v>42858</v>
+        <v>42958</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
-        <v>42873</v>
+        <v>42958</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <v>42873</v>
+        <v>42958</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
-        <v>42873</v>
+        <v>42958</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>42873</v>
+        <v>42958</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <v>42905</v>
+        <v>42989</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
-        <v>42954</v>
+        <v>42989</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
-        <v>42958</v>
+        <v>42990</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>42958</v>
+        <v>42990</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>42958</v>
+        <v>42992</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <v>42958</v>
+        <v>43038</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>42958</v>
+        <v>43038</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <v>42989</v>
+        <v>43062</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>42989</v>
+        <v>43066</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>42990</v>
+        <v>43066</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>43866</v>
+        <v>43067</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>554</v>
+        <v>353</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>42990</v>
+        <v>43067</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <v>42992</v>
+        <v>43131</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>43038</v>
+        <v>43131</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>43038</v>
+        <v>43131</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>43062</v>
+        <v>43173</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>43066</v>
+        <v>43173</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>43066</v>
+        <v>43173</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>43067</v>
+        <v>43178</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>43067</v>
+        <v>43186</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>43131</v>
+        <v>43186</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>43131</v>
+        <v>43186</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>43131</v>
+        <v>43186</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>43173</v>
+        <v>43186</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>43173</v>
+        <v>43186</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>43173</v>
+        <v>43222</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>43178</v>
+        <v>43222</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>43186</v>
+        <v>43255</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>43186</v>
+        <v>43262</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>43186</v>
+        <v>43280</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>43186</v>
+        <v>43209</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>43186</v>
+        <v>43209</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>43186</v>
+        <v>41473</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>43222</v>
+        <v>41473</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>43222</v>
+        <v>41473</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>43255</v>
+        <v>41761</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>43262</v>
+        <v>42115</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>43280</v>
+        <v>42115</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>43209</v>
+        <v>42115</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>43209</v>
+        <v>42115</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>41473</v>
+        <v>42115</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>41473</v>
+        <v>43073</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>41473</v>
+        <v>43073</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>41761</v>
+        <v>40359</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>42115</v>
+        <v>40359</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>42115</v>
+        <v>40463</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>42115</v>
+        <v>41351</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>42115</v>
+        <v>41876</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>42115</v>
+        <v>41921</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
-        <v>43073</v>
+        <v>41921</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
-        <v>43073</v>
+        <v>41921</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
-        <v>40359</v>
+        <v>41921</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>40359</v>
+        <v>42642</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
-        <v>40463</v>
+        <v>42642</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>41351</v>
+        <v>42745</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
-        <v>41876</v>
+        <v>42745</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>41921</v>
+        <v>43390</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>41921</v>
+        <v>43136</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
-        <v>41921</v>
+        <v>43136</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
-        <v>41921</v>
+        <v>43136</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
-        <v>42642</v>
+        <v>43136</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
-        <v>42642</v>
+        <v>43158</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
-        <v>42745</v>
+        <v>43158</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
-        <v>42745</v>
+        <v>43158</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
-        <v>43390</v>
+        <v>43158</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
-        <v>43136</v>
+        <v>43209</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
-        <v>43136</v>
+        <v>43209</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
-        <v>43136</v>
+        <v>43256</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
-        <v>43136</v>
+        <v>43256</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
-        <v>43158</v>
+        <v>43264</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
-        <v>43158</v>
+        <v>43264</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
-        <v>43158</v>
+        <v>43273</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
-        <v>43158</v>
+        <v>43697</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
-        <v>43209</v>
+        <v>43285</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
-        <v>43209</v>
+        <v>43285</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
-        <v>43256</v>
+        <v>43530</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
-        <v>43256</v>
+        <v>43286</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
-        <v>43264</v>
+        <v>43286</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
-        <v>43264</v>
+        <v>43286</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
-        <v>43273</v>
+        <v>43286</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
-        <v>43697</v>
+        <v>43286</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
-        <v>43285</v>
+        <v>43292</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
-        <v>43530</v>
+        <v>43292</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
-        <v>43286</v>
+        <v>43292</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
-        <v>43286</v>
+        <v>43292</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
-        <v>43286</v>
+        <v>43299</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
-        <v>43286</v>
+        <v>43300</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
-        <v>43286</v>
+        <v>43398</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
-        <v>43286</v>
+        <v>43454</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
-        <v>43292</v>
+        <v>43454</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
-        <v>43292</v>
+        <v>43418</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
-        <v>43292</v>
+        <v>43445</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
-        <v>43292</v>
+        <v>43454</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
-        <v>43299</v>
+        <v>43454</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
-        <v>43300</v>
+        <v>43518</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
-        <v>43398</v>
+        <v>43525</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
-        <v>43454</v>
+        <v>43486</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
-        <v>43454</v>
+        <v>43486</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
-        <v>43445</v>
+        <v>43469</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
-        <v>43454</v>
+        <v>43528</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
-        <v>43454</v>
+        <v>43539</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
-        <v>43518</v>
+        <v>43550</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
-        <v>43525</v>
+        <v>43579</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
-        <v>43486</v>
+        <v>43488</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="5">
-        <v>43486</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="5">
-        <v>43469</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="5">
-        <v>43528</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="5">
-        <v>43539</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="5">
-        <v>43550</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="5">
-        <v>43579</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="5">
-        <v>43444</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="5">
-        <v>43488</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="C283" s="6" t="s">
         <v>544</v>
       </c>
     </row>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 21-02-2020 11:18:43</t>
+    <t>Folha Comentários : 26-02-2020 09:06:33</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 26-02-2020 09:06:33</t>
+    <t>Folha Comentários : 05-03-2020 13:50:55</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 05-03-2020 13:50:55</t>
+    <t>Folha Comentários : 25-05-2020 09:25:31</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexbot_v1.2\rexBot\EXCEL LIBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexbot_v1.3\rexBot\EXCEL LIBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 25-05-2020 09:25:31</t>
+    <t>Folha Comentários : 02-06-2020 10:15:52</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 02-06-2020 10:15:52</t>
+    <t>Folha Comentários : 17-06-2020 09:18:21</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 17-06-2020 09:18:21</t>
+    <t>Folha Comentários : 18-06-2020 10:15:41</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 18-06-2020 10:15:41</t>
+    <t>Folha Comentários : 22-06-2020 08:47:11</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 22-06-2020 08:47:11</t>
+    <t>Folha Comentários : 24-06-2020 09:36:52</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2063,7 @@
   <dimension ref="A1:C275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 24-06-2020 09:36:52</t>
+    <t>Folha Comentários : 10-07-2020 10:13:45</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 10-07-2020 10:13:45</t>
+    <t>Folha Comentários : 17-07-2020 08:44:05</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 17-07-2020 08:44:05</t>
+    <t>Folha Comentários : 22-07-2020 09:23:32</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexbot_v1.3\rexBot\EXCEL LIBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexBot\EXCEL LIBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 22-07-2020 09:23:32</t>
+    <t>Folha Comentários : 27-07-2020 09:43:08</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 27-07-2020 09:43:08</t>
+    <t>Folha Comentários : 30-07-2020 09:23:18</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 30-07-2020 09:23:18</t>
+    <t>Folha Comentários : 03-08-2020 09:33:02</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 03-08-2020 09:33:02</t>
+    <t>Folha Comentários : 10-08-2020 17:04:31</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 10-08-2020 17:04:31</t>
+    <t>Folha Comentários : 10-08-2020 17:13:21</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 10-08-2020 17:13:21</t>
+    <t>Folha Comentários : 14-08-2020 09:37:42</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 14-08-2020 09:37:42</t>
+    <t>Folha Comentários : 31-08-2020 09:12:16</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 31-08-2020 09:12:16</t>
+    <t>Folha Comentários : 04-09-2020 11:35:26</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 04-09-2020 11:35:26</t>
+    <t>Folha Comentários : 11-09-2020 09:23:28</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 04-09-2020 11:35:26</t>
+    <t>Folha Comentários : 14-09-2020 09:55:14</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 14-09-2020 09:55:14</t>
+    <t>Folha Comentários : 15-10-2020 09:40:42</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 15-10-2020 09:40:42</t>
+    <t>Folha Comentários : 26-10-2020 09:50:44</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 26-10-2020 09:50:44</t>
+    <t>Folha Comentários : 02-11-2020 12:06:22</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexBot\EXCEL LIBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\rexBot\EXCEL LIBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1664,13 +1664,13 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 02-11-2020 12:06:22</t>
+    <t>Folha Comentários : 06/01/2021 14:19:07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2068,7 +2068,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="172.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
   </cols>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 06/01/2021 14:19:07</t>
+    <t>Folha Comentários : 06/01/2021 14:21:06</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 06/01/2021 14:21:06</t>
+    <t>Folha Comentários : 13/01/2021 09:15:34</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 13/01/2021 09:15:34</t>
+    <t>Folha Comentários : 20/01/2021 09:51:00</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 20/01/2021 09:51:00</t>
+    <t>Folha Comentários : 25/01/2021 09:08:25</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 25/01/2021 09:08:25</t>
+    <t>Folha Comentários : 23/03/2021 17:17:46</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 23/03/2021 17:17:46</t>
+    <t>Folha Comentários : 06/04/2021 13:36:51</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 06/04/2021 13:36:51</t>
+    <t>Folha Comentários : 09/04/2021 17:39:12</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 09/04/2021 17:39:12</t>
+    <t>Folha Comentários : 30/04/2021 14:19:19</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 30/04/2021 14:19:19</t>
+    <t>Folha Comentários : 17/05/2021 18:22:24</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 17/05/2021 18:22:24</t>
+    <t>Folha Comentários : 24/05/2021 09:50:56</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 24/05/2021 09:50:56</t>
+    <t>Folha Comentários : 31/05/2021 09:11:15</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 31/05/2021 09:11:15</t>
+    <t>Folha Comentários : 07/06/2021 09:30:19</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 07/06/2021 09:30:19</t>
+    <t>Folha Comentários : 11/06/2021 09:08:17</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 11/06/2021 09:08:17</t>
+    <t>Folha Comentários : 18/06/2021 10:26:03</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 18/06/2021 10:26:03</t>
+    <t>Folha Comentários : 25/06/2021 09:11:55</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 25/06/2021 09:11:55</t>
+    <t>Folha Comentários : 05/07/2021 09:26:43</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 05/07/2021 09:26:43</t>
+    <t>Folha Comentários : 21/07/2021 13:47:30</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,7 +1664,7 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 21/07/2021 13:47:30</t>
+    <t>Folha Comentários : 02/08/2021 09:57:59</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="549">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -1664,7 +1664,13 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 02/08/2021 09:57:59</t>
+    <t>Folha Comentários : 30/08/2021 10:03:22</t>
+  </si>
+  <si>
+    <t>TECIDO RANSTA RED (TULLSTA)</t>
+  </si>
+  <si>
+    <t>I1009</t>
   </si>
 </sst>
 </file>
@@ -1786,8 +1792,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:C275" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A3:C275"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:C276" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A3:C276"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Data" dataDxfId="2"/>
     <tableColumn id="2" name="Comentário" dataDxfId="1"/>
@@ -2060,7 +2066,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C275"/>
+  <dimension ref="A1:C276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -4410,46 +4416,46 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>40463</v>
+        <v>40359</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>423</v>
+        <v>547</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>424</v>
+        <v>548</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>41351</v>
+        <v>40463</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>41876</v>
+        <v>41351</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>41921</v>
+        <v>41876</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4457,10 +4463,10 @@
         <v>41921</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4468,10 +4474,10 @@
         <v>41921</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -4479,21 +4485,21 @@
         <v>41921</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>42642</v>
+        <v>41921</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -4501,21 +4507,21 @@
         <v>42642</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>42745</v>
+        <v>42642</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -4523,32 +4529,32 @@
         <v>42745</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>43390</v>
+        <v>42745</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>43136</v>
+        <v>43390</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -4556,10 +4562,10 @@
         <v>43136</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4567,10 +4573,10 @@
         <v>43136</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -4578,21 +4584,21 @@
         <v>43136</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
-        <v>43158</v>
+        <v>43136</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -4600,10 +4606,10 @@
         <v>43158</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -4611,10 +4617,10 @@
         <v>43158</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -4622,21 +4628,21 @@
         <v>43158</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
-        <v>43209</v>
+        <v>43158</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -4644,21 +4650,21 @@
         <v>43209</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
-        <v>43256</v>
+        <v>43209</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -4666,21 +4672,21 @@
         <v>43256</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
-        <v>43264</v>
+        <v>43256</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -4688,29 +4694,29 @@
         <v>43264</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
-        <v>43273</v>
+        <v>43264</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
-        <v>43697</v>
+        <v>43273</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>476</v>
@@ -4718,13 +4724,13 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
-        <v>43285</v>
+        <v>43697</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -4732,18 +4738,18 @@
         <v>43285</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
-        <v>43530</v>
+        <v>43285</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>481</v>
@@ -4751,13 +4757,13 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
-        <v>43286</v>
+        <v>43530</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -4765,10 +4771,10 @@
         <v>43286</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -4776,10 +4782,10 @@
         <v>43286</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -4787,10 +4793,10 @@
         <v>43286</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -4798,10 +4804,10 @@
         <v>43286</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4809,21 +4815,21 @@
         <v>43286</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
-        <v>43292</v>
+        <v>43286</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -4831,10 +4837,10 @@
         <v>43292</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4842,10 +4848,10 @@
         <v>43292</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -4853,54 +4859,54 @@
         <v>43292</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
-        <v>43299</v>
+        <v>43292</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
-        <v>43300</v>
+        <v>43299</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
-        <v>43398</v>
+        <v>43300</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
-        <v>43454</v>
+        <v>43398</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4908,43 +4914,43 @@
         <v>43454</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
-        <v>43418</v>
+        <v>43454</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
-        <v>43445</v>
+        <v>43418</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
-        <v>43454</v>
+        <v>43445</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4952,43 +4958,43 @@
         <v>43454</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
-        <v>43518</v>
+        <v>43454</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
-        <v>43525</v>
+        <v>43518</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
-        <v>43486</v>
+        <v>43525</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4996,10 +5002,10 @@
         <v>43486</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -5007,86 +5013,97 @@
         <v>43486</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
-        <v>43469</v>
+        <v>43486</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
-        <v>43528</v>
+        <v>43469</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
-        <v>43539</v>
+        <v>43528</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
-        <v>43550</v>
+        <v>43539</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
-        <v>43579</v>
+        <v>43550</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
-        <v>43444</v>
+        <v>43579</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
+        <v>43444</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="5">
         <v>43488</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B276" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C275" s="6" t="s">
+      <c r="C276" s="6" t="s">
         <v>544</v>
       </c>
     </row>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1664,13 +1664,13 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 30/08/2021 10:03:22</t>
-  </si>
-  <si>
     <t>TECIDO RANSTA RED (TULLSTA)</t>
   </si>
   <si>
     <t>I1009</t>
+  </si>
+  <si>
+    <t>Folha Comentários : 09/09/2021 09:32:35</t>
   </si>
 </sst>
 </file>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4419,10 +4419,10 @@
         <v>40359</v>
       </c>
       <c r="B214" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1670,7 +1670,7 @@
     <t>I1009</t>
   </si>
   <si>
-    <t>Folha Comentários : 09/09/2021 09:32:35</t>
+    <t>Folha Comentários : 14/06/2022 09:35:52</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2069,7 @@
   <dimension ref="A1:C276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EXCEL LIBS/tc_oldlist.xlsx
+++ b/EXCEL LIBS/tc_oldlist.xlsx
@@ -1670,7 +1670,7 @@
     <t>I1009</t>
   </si>
   <si>
-    <t>Folha Comentários : 14/06/2022 09:35:52</t>
+    <t>Folha Comentários : 29/06/2022 15:06:25</t>
   </si>
 </sst>
 </file>
